--- a/pred_ohlcv/54_21/2020-01-26 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 EOS ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>41819.90113954</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>44554.87933954</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>44584.87933954</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>44612.87933954</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>44586.28783954</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>38341.99602210998</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>37864.06392210998</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>38916.73882210998</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>38693.52542210998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>38081.98892210998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>35503.37352210998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>38774.59292210998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>38900.49962210999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>52091.42799619999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>56426.37069619999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>51374.59469619999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>51273.59469619999</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>53330.02729619999</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>53006.42569619999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>52564.12569619998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>51748.70409619998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>54522.75209619998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>57122.82889619999</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>57322.47329619998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>57479.22029619999</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>58036.53049619999</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>58512.75519619999</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>58493.21829619999</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>60145.21829619999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>56808.70429619998</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>57362.61809619999</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>57278.33389619998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>59784.31379619998</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>55746.80209619998</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>56328.48109619998</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>56278.48109619998</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>58358.48109619998</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>58347.01879619998</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>58798.96079619998</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>58797.96079619998</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>55799.66459619998</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>55796.72859619998</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>44927.45079619998</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>44821.44709619998</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-6897.930539180043</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-8511.399939180043</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-8152.459439180043</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-8495.587539180044</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3790.835039180044</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1572.074760819956</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-423.2348391800438</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-116.2128391800438</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1334.257639180044</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-677.4138391800437</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1081.186639180044</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1085.819539180044</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5332.502139180044</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10615.14813918004</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-8343.905139180044</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-8843.905139180044</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-10145.41483918004</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-87752.17634707005</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-87757.17634707005</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-85811.75764707006</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-85724.86524707006</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-114343.42127314</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-113669.62967314</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-113942.12587314</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-113977.87767314</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-113999.53267314</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-113999.53267314</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-110055.59887314</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-106638.66417314</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-108235.77397314</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-108444.20937314</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-108194.20937314</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-105899.70937314</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-111794.58367314</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-112633.25027314</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-112887.39227314</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-113001.33127314</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-114044.04497314</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-112694.41667314</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 EOS ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>41819.90113954</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>44554.87933954</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>44584.87933954</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>44612.87933954</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>44586.28783954</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>22018.2164962</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>32481.49889619999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>34568.22452210999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>38452.14972210999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>38341.99602210998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>37864.06392210998</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>38916.73882210998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>38693.52542210998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>38081.98892210998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>35503.37352210998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>38774.59292210998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>41296.15182210998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>38900.49962210999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>42296.79152210998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52059.42799619999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>52091.42799619999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>52136.70899619999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>56426.37069619999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>51374.59469619999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>51273.59469619999</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>53330.02729619999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>53006.42569619999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>52564.12569619998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>51748.70409619998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>54522.75209619998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>57122.82889619999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>57322.47329619998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>57479.22029619999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>57837.72029619999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>58036.53049619999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>58512.75519619999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>58493.21829619999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>60145.21829619999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>56808.70429619998</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>57362.61809619999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>57278.33389619998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>57967.81379619998</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>59784.31379619998</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>55746.80209619998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>56328.48109619998</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>56278.48109619998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>58358.48109619998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>58347.01879619998</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>58798.96079619998</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>58797.96079619998</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>55796.72859619998</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>55796.72859619998</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-6897.930539180043</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-6797.930539180043</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-8511.399939180043</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-8152.459439180043</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-8495.587539180044</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3790.835039180044</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1572.074760819956</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-423.2348391800438</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-116.2128391800438</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1334.257639180044</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-677.4138391800437</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1081.186639180044</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1085.819539180044</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5332.502139180044</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10298.76853918004</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10615.14813918004</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-8343.905139180044</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-8843.905139180044</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-10145.41483918004</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-86459.11824707006</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-86459.11824707006</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-90348.67424707006</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-90822.56745095005</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-87656.09265483005</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-87656.09265483005</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-87656.09265483005</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-86428.05885483004</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-85930.43835483004</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-116480.50165483</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-114343.42127314</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-113999.53267314</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-108194.20937314</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-105899.70937314</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-104419.07547314</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-104438.41627314</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-104634.46477314</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-103527.54757314</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-103224.54757314</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-106624.04567314</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-107029.74087314</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-107039.79017314</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-111794.58367314</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-112633.25027314</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-112887.39227314</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-113001.33127314</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-114044.04497314</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-114092.80637314</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-112694.41667314</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
